--- a/seq-diagram.xlsx
+++ b/seq-diagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Client</t>
   </si>
@@ -32,6 +32,24 @@
     <t>MessageParser</t>
   </si>
   <si>
+    <t xml:space="preserve"> --------------&gt; </t>
+  </si>
+  <si>
+    <t>send_payload()</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>parse_login()</t>
+  </si>
+  <si>
+    <t>parse_logout()</t>
+  </si>
+  <si>
+    <t>parse_info()</t>
+  </si>
+  <si>
     <t>parse_error()</t>
   </si>
   <si>
@@ -48,6 +66,54 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;------------ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ------------&gt;</t>
+  </si>
+  <si>
+    <t>login req.</t>
+  </si>
+  <si>
+    <t>login res.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;----------</t>
+  </si>
+  <si>
+    <t>Uses handle to check username</t>
+  </si>
+  <si>
+    <t>parse_message()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -------------------&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ----------------&gt;</t>
+  </si>
+  <si>
+    <t>sends the msg</t>
+  </si>
+  <si>
+    <t>logout req.</t>
+  </si>
+  <si>
+    <t>logout res.</t>
+  </si>
+  <si>
+    <t>disconnect()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---------------------</t>
+  </si>
+  <si>
+    <t>&lt; ------------------</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>close connection</t>
   </si>
 </sst>
 </file>
@@ -71,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,20 +167,60 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,88 +515,240 @@
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H7:H11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/seq-diagram.xlsx
+++ b/seq-diagram.xlsx
@@ -214,14 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -559,14 +559,14 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2"/>
@@ -602,7 +602,7 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
@@ -631,13 +631,13 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -652,7 +652,7 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
